--- a/script/Pr_temp_spreadsheets/05_00_ARC05_9.xlsx
+++ b/script/Pr_temp_spreadsheets/05_00_ARC05_9.xlsx
@@ -1497,7 +1497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5820c9f0-d3e3-4e29-b24f-b21d8c34eff9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f8e19fc9-3111-4772-8cd6-d8ebdb7e2f24}">
   <dimension ref="A1:B194"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -3067,7 +3067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f66e44d3-f531-469d-b767-6152aba31bfe}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{cfcc5360-17fd-435e-9a8d-94d45dd71b74}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
